--- a/biology/Zoologie/Atlides_rustan/Atlides_rustan.xlsx
+++ b/biology/Zoologie/Atlides_rustan/Atlides_rustan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides rustan est un papillon de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Atlides.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides rustan a été décrit par Caspar Stoll en 1790 sous le nom de Papilio rustan.
-Synonymes : Thecla macaria Swainson, 1822; Thecla rustan ; Hewitson, 1867; Oenomaus rustan[1].
-Noms vernaculaires
-Atlides rustan se nomme Rustan Hairstreak en anglais[2].
+Synonymes : Thecla macaria Swainson, 1822; Thecla rustan ; Hewitson, 1867; Oenomaus rustan.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atlides rustan est un petit papillon  avec une longue et une très courte fines queues à chaque aile postérieure. Le dessus de couleur beige est beige doré suffusé de vert clair aux ailes antérieures qui présentent près du milieu du bord costal une tache double marron. Le revers est beige doré marqué de taches rondes marron avec aux ailes postérieures un ocelle marron anal.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides rustan se nomme Rustan Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -573,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides rustan est un petit papillon  avec une longue et une très courte fines queues à chaque aile postérieure. Le dessus de couleur beige est beige doré suffusé de vert clair aux ailes antérieures qui présentent près du milieu du bord costal une tache double marron. Le revers est beige doré marqué de taches rondes marron avec aux ailes postérieures un ocelle marron anal.
+</t>
         </is>
       </c>
     </row>
@@ -606,14 +627,50 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside au Honduras, au Costa Rica, en Colombie, au Brésil et en Guyane[1],[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside au Honduras, au Costa Rica, en Colombie, au Brésil et en Guyane.
 Sur les autres projets Wikimedia :
 Atlides rustan, sur Wikimedia CommonsAtlides rustan, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atlides_rustan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlides_rustan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
